--- a/ocms/src/test/resources/TestData/OCMPendingEmailAgeingReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMPendingEmailAgeingReport.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41BB5BAA-BD78-4BE1-99FC-97A5139D0CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4B28AE-F724-4983-B055-534E634CF5B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="41">
   <si>
     <t>Report Channel</t>
   </si>
@@ -84,22 +84,6 @@
     <t>Query</t>
   </si>
   <si>
-    <t xml:space="preserve">SELECT [UCID],FORMAT([dbo].[VARCHARTODATETIME] (REQUESTDATETIME),'dd/MM/yyyy HH:mm:ss') as [Request Date Time],[CIN] as [CIN/NRIC],
-[TransactionName] as [Transaction Name],[MenuDescription] as [Menu Description],isnull([RequestMessage],'') as [Request Message],
-[ResponseMessage] as [Response Message],[HotlineNumber] as [Hotline Number],[PhoneCode] as [User ID],[CIF],[CustomerSegment] as [Customer Segment] from 
-(SELECT IVR_CALL_HISTORY.ICH_CALLREFID AS UCID,
-SUBSTRING(REPLACE(REPLACE(REPLACE(CONVERT(VARCHAR(MAX),IVR_TRL.REQUEST_DATE,121),'-',''),':',''),' ',''),0,15) AS REQUESTDATETIME,
-IVR_CALL_HISTORY.NRIC AS CIN,IVR_TRL.TRANSACTION_NAME AS TRANSACTIONNAME,IVR_TRL.MENU_DESCRIPTION AS MENUDESCRIPTION,
-IVR_TRL.REQ_MESSAGE AS REQUESTMESSAGE,IVR_TRL.RES_MESSAGE AS RESPONSEMESSAGE,IVR_CALL_HISTORY.ICH_DNIS AS HOTLINENUMBER,
-IVR_CALL_HISTORY.PHONE_CODE AS PHONECODE,IVR_CALL_HISTORY.CIF,IVR_CALL_HISTORY.CUSTOMER_SEGMENT AS CUSTOMERSEGMENT,   
-CONVERT(VARCHAR,((SELECT(CONVERT(DATETIME,IVR_TRL.RESPONSE_DATE,108)))-(SELECT(CONVERT(DATETIME,IVR_TRL.REQUEST_DATE,108)))),114) AS RESPONSETIME,   
-REPLACE(ICH_END_DATE+ICH_END_TIME,':','') AS ENDDATETIME
-FROM  IVR_TRL with(nolock) INNER JOIN IVR_CALL_HISTORY with(nolock) ON IVR_CALL_HISTORY.ICH_CALLREFID=IVR_TRL.UCID
-WHERE 1=1 AND REPLACE(ICH_END_DATE+ICH_END_TIME,':','')&gt;='ReportBeforeDate' AND REPLACE(ICH_END_DATE+ICH_END_TIME,':','')&lt;='ReportAfterDate') 
-M order by M.REQUESTDATETIME ASC;
-</t>
-  </si>
-  <si>
     <t>Is not equal to</t>
   </si>
   <si>
@@ -112,9 +96,6 @@
     <t>24-05-2021 00:00:00</t>
   </si>
   <si>
-    <t>28-05-2021 00:00:00</t>
-  </si>
-  <si>
     <t>Delete</t>
   </si>
   <si>
@@ -136,15 +117,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>01-05-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>31-05-2021 00:00:00</t>
-  </si>
-  <si>
-    <t>Pending Email Ageing Report</t>
-  </si>
-  <si>
     <t>Skill Name</t>
   </si>
   <si>
@@ -164,6 +136,76 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>Select grouptab.SkillName as 'Skill Name',SUM(grouptab.TotalEmails) as 'Total Emails', 
+FORMAT([dbo].[VARCHARTODATETIME](min(grouptab.OldestEmail)),'dd/MM/yyyy HH:mm:ss') as 'Oldest Email',
+sum(grouptab.Email_1_Day) as '&lt;=1 Day',
+sum(grouptab.Email_2_Day) as '&gt;1 Day &lt;= 2 Days ',
+sum(grouptab.Email_3_Day) as '&gt;2 Days &lt;= 3 Days ',
+sum(grouptab.Email_5_Day) as '&gt;3 Days &lt;= 5 Days ',
+sum(grouptab.Email_10_Day) as '&gt;5 Days &lt;= 10 Days ',
+sum(grouptab.Email_14_Day) as '&gt;10 Days &lt;=14 Days',
+sum(grouptab.Email_15_Day) as '&gt;14 Days'
+from (
+Select s.SkillName as SkillName,isnull(Count(1),0) as TotalEmails,MIN(tab.OldestEmail) as OldestEmail,
+case when tab.Type = '0-1' Then isnull(Count(1),0) else 0 END AS 'Email_1_Day' ,
+case when tab.Type = '1-2' Then isnull(Count(1),0) else 0 END AS 'Email_2_Day' ,
+case when tab.Type = '2-3' Then  isnull(Count(1),0) else 0 END AS 'Email_3_Day' ,
+case when tab.Type = '3-5' Then isnull(Count(1),0) else 0 END AS 'Email_5_Day' ,
+case when tab.Type = '5-10' Then isnull(Count(1),0) else 0 END AS 'Email_10_Day' ,
+case when tab.Type = '10-14' Then isnull(Count(1),0)else 0 END AS 'Email_14_Day' ,
+case when tab.Type = '15-15' Then isnull(Count(1),0) else 0 END AS 'Email_15_Day' 
+from (
+select (case when t.DaysAgo between 0 and 1 then '0-1'
+when t.DaysAgo between 1 and 2 then '1-2'
+when t.DaysAgo between 2 and 3 then '2-3'
+when t.DaysAgo between 3 and 5 then '3-5'
+when t.DaysAgo between 5 and 10 then '5-10'
+when t.DaysAgo between 10 and 14 then '10-14'
+when t.DaysAgo &gt;14 then '15-15'
+else '15-15'
+end) as Type,
+t.OldestEmailInQueue OldestEmail,
+a.Skill,a.RouteDateTime,a.SessionID
+from (SELECT Skill,RouteDateTime,R.SessionID
+FROM Email_Routes R
+Inner join Email_Inbox I on I.SessionID = R.SessionID
+WHERE I.CurrentStatus NOT IN( 'DirectEmailAnswered','Close','CloseWithReply', 'Closewithoutreply','Answered') 
+AND R.CurrentStatus NOT IN( 'DirectEmailAnswered', 'Closed','CloseWithReply', 'Closewithoutreply','Answered') 
+AND RouteDateTime Between  'ReportBeforeDate' AND 'ReportAfterDate' AND Skill IS NOT NULL
+) a INNER JOIN
+(SELECT Skill,R.SessionID, MAX(RouteDateTime) as OldestEmailInQueue,
+datediff(d, SUBSTRING(RouteDateTime,0,9), getdate()) as DaysAgo
+FROM Email_Routes R
+Inner join Email_Inbox I on I.SessionID = R.SessionID
+WHERE I.CurrentStatus NOT IN( 'DirectEmailAnswered','Close', 'CloseWithReply', 'Closewithoutreply','Answered') 
+AND R.CurrentStatus NOT IN( 'DirectEmailAnswered', 'Closed','CloseWithReply', 'Closewithoutreply','Answered') 
+AND RouteDateTime Between  'ReportBeforeDate' AND 'ReportAfterDate' AND Skill IS NOT NULL
+GROUP BY R.SessionID,Skill,RouteDateTime
+) t
+on a.SessionID = t.SessionID and a.Skill = t.Skill	
+group by  (case when t.DaysAgo between 0 and 1 then '0-1'
+when t.DaysAgo between 1 and 2 then '1-2'
+when t.DaysAgo between 2 and 3 then '2-3'
+when t.DaysAgo between 3 and 5 then '3-5'
+when t.DaysAgo between 5 and 10 then '5-10'
+when t.DaysAgo between 10 and 14 then '10-14'
+when t.DaysAgo &gt;14 then '15-15'
+else '15-15'
+end),a.SessionID,a.Skill,a.RouteDateTime,t.OldestEmailInQueue ) as tab 
+Inner join [Email_SkillMap] M on M.MakerSkill = tab.Skill
+left join [TMAC_Skills] S On tab.Skill = S.SkillExtension
+Group by tab.Type,s.SkillName) as grouptab Group by grouptab.SkillName;</t>
+  </si>
+  <si>
+    <t>19-05-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>24-06-2021 00:00:00</t>
+  </si>
+  <si>
+    <t>OCM Pending Email Ageing Report</t>
   </si>
 </sst>
 </file>
@@ -525,7 +567,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,16 +594,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -575,7 +617,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -626,31 +668,31 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>33</v>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>27</v>
-      </c>
       <c r="I2" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>17</v>
@@ -658,31 +700,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>17</v>
@@ -690,121 +732,121 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="H5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>33</v>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="J7" s="5"/>
     </row>
@@ -820,7 +862,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -849,31 +891,31 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" s="10"/>
     </row>
@@ -921,19 +963,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>24</v>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>17</v>
@@ -949,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1004,186 +1046,186 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>33</v>
+      <c r="D2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="K2" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>33</v>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>33</v>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>33</v>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>33</v>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>33</v>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J7" s="7"/>
     </row>
@@ -1233,22 +1275,22 @@
     </row>
     <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
